--- a/biology/Zoologie/Ictaluridae/Ictaluridae.xlsx
+++ b/biology/Zoologie/Ictaluridae/Ictaluridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ictaluridés (Ictaluridae) forment une famille de poissons-chats appartenant à l'ordre des Siluriformes. Cette famille englobe entre autres les barbottes.
 Ils possèdent une mâchoire. Leur corps est symétrique mais ne possède pas d'écussons osseux. Ils possèdent des nageoires pelviennes qui sont adipeuses. Ils possèdent sur la tête des barbillons. Ils possèdent de fortes épines pectorales et dorsales.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 octobre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 octobre 2017) :
 genre Ameiurus Rafinesque, 1820
 genre Ictalurus Rafinesque, 1820
 genre Noturus Rafinesque, 1818
